--- a/data/trans_orig/IP22D2_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D2_2023_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{156E568B-E5EF-487C-99E8-C66737125671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCF64267-A4D1-4E5A-82F1-64851B30DDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E00BD07E-ECE2-41E0-A085-57303EA7CFA5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D899EBA7-1509-41C2-883E-FF10F4839DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -110,25 +110,25 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>18,8%</t>
+    <t>21,68%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>11,39%</t>
+    <t>14,14%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>81,2%</t>
+    <t>78,32%</t>
   </si>
   <si>
     <t>97,4%</t>
   </si>
   <si>
-    <t>88,61%</t>
+    <t>85,86%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -161,13 +161,13 @@
     <t>2,91%</t>
   </si>
   <si>
-    <t>16,87%</t>
+    <t>14,84%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>8,33%</t>
+    <t>7,63%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -176,49 +176,49 @@
     <t>97,09%</t>
   </si>
   <si>
-    <t>83,13%</t>
+    <t>85,16%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>91,67%</t>
+    <t>92,37%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>5,75%</t>
+    <t>5,93%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>5,72%</t>
+    <t>7,82%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>3,78%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>94,25%</t>
+    <t>94,07%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>94,28%</t>
+    <t>92,18%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>96,22%</t>
+    <t>95,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54FD27F-B5F5-4FF4-86B9-D230C0D39A64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B911B9A-5C07-44B7-9277-8E9466EFC2F0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D2_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D2_2023_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCF64267-A4D1-4E5A-82F1-64851B30DDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A35349-CEEC-4826-961D-1E39B00882F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D899EBA7-1509-41C2-883E-FF10F4839DA3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F54821A5-1024-4FC2-B7F0-AD3BC1374ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores que, necesitando atención sanitaria dental, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 6,56%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -77,145 +77,145 @@
     <t>0%</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
     <t>92,07%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>13,49%</t>
+  </si>
+  <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
     <t>5,78%</t>
   </si>
   <si>
+    <t>86,51%</t>
+  </si>
+  <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
     <t>94,22%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>95,84%</t>
@@ -633,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B911B9A-5C07-44B7-9277-8E9466EFC2F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F24EC4D-D731-448C-9FF3-E8498CADD0F1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -802,10 +802,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>5964</v>
+        <v>7002</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -817,10 +817,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>6818</v>
+        <v>6261</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -835,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>12781</v>
+        <v>13262</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -853,10 +853,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>5964</v>
+        <v>7002</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -868,10 +868,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>6818</v>
+        <v>6261</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -886,7 +886,7 @@
         <v>23</v>
       </c>
       <c r="N6" s="7">
-        <v>12781</v>
+        <v>13262</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -906,40 +906,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>504</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>519</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>25</v>
@@ -957,40 +957,40 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8059</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>16</v>
       </c>
-      <c r="D8" s="7">
-        <v>11271</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>12018</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7589</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
       </c>
       <c r="N8" s="7">
-        <v>18859</v>
+        <v>20077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>29</v>
@@ -1008,25 +1008,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8059</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>17</v>
       </c>
-      <c r="D9" s="7">
-        <v>11775</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>12</v>
-      </c>
       <c r="I9" s="7">
-        <v>7589</v>
+        <v>12537</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>19363</v>
+        <v>20596</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1112,10 +1112,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>15412</v>
+        <v>9507</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1127,10 +1127,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>9550</v>
+        <v>16719</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1145,7 +1145,7 @@
         <v>32</v>
       </c>
       <c r="N11" s="7">
-        <v>24962</v>
+        <v>26226</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1163,10 +1163,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>15412</v>
+        <v>9507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1178,10 +1178,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I12" s="7">
-        <v>9550</v>
+        <v>16719</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1196,7 +1196,7 @@
         <v>32</v>
       </c>
       <c r="N12" s="7">
-        <v>24962</v>
+        <v>26226</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1216,31 +1216,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>594</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>41</v>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>594</v>
+        <v>655</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>42</v>
@@ -1267,40 +1267,40 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7">
+        <v>22943</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
         <v>16</v>
       </c>
-      <c r="D14" s="7">
-        <v>15703</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>17196</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>25</v>
-      </c>
-      <c r="I14" s="7">
-        <v>19810</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
       </c>
       <c r="N14" s="7">
-        <v>35513</v>
+        <v>40139</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>47</v>
@@ -1318,25 +1318,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7">
+        <v>23598</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>16</v>
       </c>
-      <c r="D15" s="7">
-        <v>15703</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>26</v>
-      </c>
       <c r="I15" s="7">
-        <v>20404</v>
+        <v>17196</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1351,7 +1351,7 @@
         <v>42</v>
       </c>
       <c r="N15" s="7">
-        <v>36107</v>
+        <v>40794</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>504</v>
+        <v>655</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>49</v>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>51</v>
@@ -1404,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>1098</v>
+        <v>1174</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>53</v>
@@ -1425,7 +1425,7 @@
         <v>62</v>
       </c>
       <c r="D17" s="7">
-        <v>48350</v>
+        <v>47511</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>55</v>
@@ -1440,7 +1440,7 @@
         <v>62</v>
       </c>
       <c r="I17" s="7">
-        <v>43766</v>
+        <v>52194</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>57</v>
@@ -1455,7 +1455,7 @@
         <v>124</v>
       </c>
       <c r="N17" s="7">
-        <v>92116</v>
+        <v>99705</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>59</v>
@@ -1476,7 +1476,7 @@
         <v>63</v>
       </c>
       <c r="D18" s="7">
-        <v>48854</v>
+        <v>48166</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1491,7 +1491,7 @@
         <v>63</v>
       </c>
       <c r="I18" s="7">
-        <v>44360</v>
+        <v>52713</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1506,7 +1506,7 @@
         <v>126</v>
       </c>
       <c r="N18" s="7">
-        <v>93214</v>
+        <v>100879</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
